--- a/clusters.xlsx
+++ b/clusters.xlsx
@@ -275,6 +275,82 @@
         <color rgb="232431" tint="0"/>
         <sz val="10"/>
       </rPr>
+      <t>INET-DEVTEST-SYNT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>ch4-inet-if-ceph01.inet.vtb [</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>10.215.226.169</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>ch4-inet-if-s-ceph01.inet.vtb [</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>10.215.226.170</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
       <t>INET-</t>
     </r>
     <r>
@@ -299,25 +375,212 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>ch4-inet-if-ceph01.inet.vtb [</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>10.215.226.169</t>
+    <t>dev-synt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>B2B-COM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>B2B-COM-DEVTEST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>ch4-b2b-dt-ceph01.vtbgroup.vtb.com [10.215.17.201]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>ch4-b2b-dt-s-ceph01.vtbgroup.vtb.com [10.215.17.202]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>B2B-DEVTEST-SYNT-DMZ-CH4</t>
+    </r>
+  </si>
+  <si>
+    <t>b2b-dt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>HOTFIX</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>INET-DEVTEST-REAL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>ch4-inet-hf-ceph02.inet.vtb [10.232.167.170]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>ch4-inet-hf-s-ceph02.inet.vtb[10.232.167.172]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>INET-DEVTEST-REAL-DMZ-CH4</t>
+    </r>
+  </si>
+  <si>
+    <t>dev-real</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>PREPROD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>ch4-inet-rr-ceph02.inet.vtb [10.232.167.169]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>ch4-inet-rr-s-ceph02.inet.vtb [10.232.167.171]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>B2B-COM-TEST-REAL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>ch4-b2b-hf-ceph01</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>.vtbgroup.vtb.com [</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>10.170.98.42</t>
     </r>
     <r>
       <rPr>
@@ -339,17 +602,27 @@
         <color rgb="232431" tint="0"/>
         <sz val="10"/>
       </rPr>
-      <t>ch4-inet-if-s-ceph01.inet.vtb [</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>10.215.226.170</t>
+      <t>ch4-b2b-hf-s-ceph01</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>.vtbgroup.vtb.com [</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="VTB Group UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="232431" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>10.170.98.44</t>
     </r>
     <r>
       <rPr>
@@ -363,153 +636,6 @@
     </r>
   </si>
   <si>
-    <t>TEST-SYNT-DMZ</t>
-  </si>
-  <si>
-    <t>dev-synt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>B2B-COM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>B2B-DEVTEST-SYNT-DMZ-CH4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>ch4-b2b-dt-ceph01.vtbgroup.vtb.com [10.215.17.201]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>ch4-b2b-dt-s-ceph01.vtbgroup.vtb.com [10.215.17.202]</t>
-    </r>
-  </si>
-  <si>
-    <t>b2b-dt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>HOTFIX</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>INET-DEVTEST-REAL-DMZ-CH4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>ch4-inet-hf-ceph02.inet.vtb [10.232.167.170]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>ch4-inet-hf-s-ceph02.inet.vtb[10.232.167.172]</t>
-    </r>
-  </si>
-  <si>
-    <t>TEST-REAL-DMZ</t>
-  </si>
-  <si>
-    <t>dev-real</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>PREPROD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>ch4-inet-rr-ceph02.inet.vtb [10.232.167.169]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>ch4-inet-rr-s-ceph02.inet.vtb [10.232.167.171]</t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="VTB Group UI"/>
@@ -519,90 +645,6 @@
         <sz val="10"/>
       </rPr>
       <t>B2B-TEST-REAL-DMZ-CH4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>ch4-b2b-hf-ceph01</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>.vtbgroup.vtb.com [</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>10.170.98.42</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>ch4-b2b-hf-s-ceph01</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>.vtbgroup.vtb.com [</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>10.170.98.44</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="VTB Group UI"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="232431" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>]</t>
     </r>
   </si>
   <si>
@@ -1893,7 +1935,7 @@
       <c r="G4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -1922,11 +1964,11 @@
       <c r="G5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>34</v>
+      <c r="H5" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="6">
@@ -1940,22 +1982,22 @@
         <v>29</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="H6" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="I6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="7">
@@ -1969,22 +2011,22 @@
         <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="8">
@@ -1998,22 +2040,22 @@
         <v>36</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="9">
@@ -2027,22 +2069,22 @@
         <v>36</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="10">
@@ -2053,25 +2095,25 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="11">
@@ -2079,7 +2121,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>20</v>
@@ -2091,16 +2133,16 @@
         <v>22</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="12">
@@ -2120,16 +2162,16 @@
         <v>22</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="13">
@@ -2137,7 +2179,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>36</v>
@@ -2146,19 +2188,19 @@
         <v>21</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="14">
@@ -2175,19 +2217,19 @@
         <v>21</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="15">
@@ -2204,13 +2246,13 @@
         <v>21</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>25</v>
@@ -2224,28 +2266,28 @@
         <v>27</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="17">
@@ -2256,25 +2298,25 @@
         <v>28</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="18">
@@ -2282,28 +2324,28 @@
         <v>27</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="19">
@@ -2314,25 +2356,25 @@
         <v>28</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="20">
@@ -2340,28 +2382,28 @@
         <v>27</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="21">
@@ -2372,25 +2414,25 @@
         <v>28</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="22">
@@ -2398,28 +2440,28 @@
         <v>27</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="23">
@@ -2430,25 +2472,25 @@
         <v>28</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="24">
@@ -2456,28 +2498,28 @@
         <v>27</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="25">
@@ -2488,25 +2530,25 @@
         <v>28</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="26">
@@ -2514,28 +2556,28 @@
         <v>27</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="27">
@@ -2546,25 +2588,25 @@
         <v>28</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row hidden="false" ht="14.3999996185303" outlineLevel="0" r="28">
@@ -2572,28 +2614,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row hidden="false" ht="0" outlineLevel="0" r="29">
@@ -2604,25 +2646,25 @@
         <v>28</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row hidden="false" ht="0" outlineLevel="0" r="30">
